--- a/data/trans_camb/CoPsoQ_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/CoPsoQ_R-Dificultad-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-10.58207610843042</v>
+        <v>-9.688810134799354</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.069783776716807</v>
+        <v>-7.360123765111323</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.286470120108009</v>
+        <v>-4.311973798372903</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-7.09676255321227</v>
+        <v>-7.157976816225603</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.905962718866239</v>
+        <v>-4.92716996976996</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.937270368677407</v>
+        <v>-2.954237297809603</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.926326496226556</v>
+        <v>4.149663949928126</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>38.74845916376978</v>
+        <v>38.19659494505099</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.37550732948797</v>
+        <v>11.33890404294119</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>25.41832105775981</v>
+        <v>23.3377444586619</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.01354099105562</v>
+        <v>5.351320382147145</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>26.2525270706342</v>
+        <v>24.15883543425507</v>
       </c>
     </row>
     <row r="7">
@@ -690,7 +690,7 @@
         <v>-0.134017651153506</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.5694740862500899</v>
+        <v>0.5694740862500896</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.1607107946910723</v>
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3973503032864935</v>
+        <v>-0.3749098131217224</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2860790909074806</v>
+        <v>-0.3479031474034353</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1766204407573531</v>
+        <v>-0.1717978072055194</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2972534458956615</v>
+        <v>-0.3167891263072552</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2036681031702093</v>
+        <v>-0.2049268406439542</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1454646853598106</v>
+        <v>-0.1390553971489217</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2231976061640401</v>
+        <v>0.2222545561305198</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.973010299002512</v>
+        <v>1.95696798354014</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6932829637348826</v>
+        <v>0.681565986088819</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.360525517239545</v>
+        <v>1.290656922122565</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3212549531495462</v>
+        <v>0.2775025302527647</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.277035629480747</v>
+        <v>1.261488933784828</v>
       </c>
     </row>
     <row r="10">
@@ -772,13 +772,13 @@
         <v>-7.489918361049799</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-6.03698568525533</v>
+        <v>-6.036985685255333</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>-3.344877947027433</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-9.716055435873791</v>
+        <v>-9.716055435873795</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>-5.788385354886011</v>
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-13.20683416852602</v>
+        <v>-13.69311802272368</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-14.23443267198866</v>
+        <v>-14.2499911741096</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-11.01347187425321</v>
+        <v>-11.36745236380361</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-18.55841844470132</v>
+        <v>-18.03946855450125</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-10.40397636422649</v>
+        <v>-10.4706861729473</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-13.49850731919063</v>
+        <v>-13.92134245153118</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-1.674929354623492</v>
+        <v>-1.144696046268362</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.842147514974776</v>
+        <v>4.696261178815401</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.098416984476966</v>
+        <v>3.941498188690391</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.6859193265511216</v>
+        <v>-1.097375939375774</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.856485752421535</v>
+        <v>-1.201193048534457</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-0.09291256075910689</v>
+        <v>-0.6148844932545108</v>
       </c>
     </row>
     <row r="13">
@@ -850,13 +850,13 @@
         <v>-0.3106008302734186</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.2503488924445677</v>
+        <v>-0.2503488924445678</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.1327688722661701</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.3856612239746922</v>
+        <v>-0.3856612239746923</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.2357933230493771</v>
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4904677772596295</v>
+        <v>-0.5020352645042591</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5637295642313811</v>
+        <v>-0.5630809197322261</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3731557980454293</v>
+        <v>-0.3779299643660778</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6570806096943893</v>
+        <v>-0.6271233061185485</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3869308327805541</v>
+        <v>-0.3919241687307572</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5282891499101406</v>
+        <v>-0.5259986851526695</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.06707151077698655</v>
+        <v>-0.04379412801452121</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2378533703258017</v>
+        <v>0.2044787450192709</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1962689490885217</v>
+        <v>0.1846446747279809</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.01920681589697867</v>
+        <v>-0.006834700575951875</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.03757618809631493</v>
+        <v>-0.05210351285902637</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01267006491279159</v>
+        <v>-0.02459887699118646</v>
       </c>
     </row>
     <row r="16">
@@ -944,7 +944,7 @@
         <v>0.6703440840968355</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>8.547456476054904</v>
+        <v>8.547456476054915</v>
       </c>
     </row>
     <row r="17">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.8046572404667914</v>
+        <v>-0.4436277609088242</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4776662811086787</v>
+        <v>0.6489350401170791</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-14.22084605329245</v>
+        <v>-13.62351892755378</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.093937621909173</v>
+        <v>-2.825935393943073</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.70632835842089</v>
+        <v>-3.740319431931908</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.482238951540917</v>
+        <v>2.220093665443712</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.25852585096372</v>
+        <v>11.17056976028647</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>20.49235442352196</v>
+        <v>20.43150441420562</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.3017891812529587</v>
+        <v>-0.6212295101494516</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15.06168659703542</v>
+        <v>14.45089982102764</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.828839879965993</v>
+        <v>5.340918048940531</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>15.36571030135817</v>
+        <v>16.00848592942008</v>
       </c>
     </row>
     <row r="19">
@@ -1022,7 +1022,7 @@
         <v>0.03124639181136158</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3984180369119069</v>
+        <v>0.3984180369119074</v>
       </c>
     </row>
     <row r="20">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.03690117830112966</v>
+        <v>-0.01870597984346904</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.01846651519514517</v>
+        <v>0.002236397466039802</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4971197056994343</v>
+        <v>-0.5046340231066646</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1514059186363796</v>
+        <v>-0.1123212239251217</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1590675588794782</v>
+        <v>-0.1624049562663407</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0673221238376082</v>
+        <v>0.0861486126117863</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6581019654297947</v>
+        <v>0.6495136590284128</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.1482178536303</v>
+        <v>1.108153224336544</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-4.037129481627446e-05</v>
+        <v>-0.02397467332649769</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.7268005208442522</v>
+        <v>0.7065694655665024</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2536922218556569</v>
+        <v>0.2747480154741526</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8144495396642782</v>
+        <v>0.8073086987818799</v>
       </c>
     </row>
     <row r="22">
@@ -1104,7 +1104,7 @@
         <v>6.148278858811398</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>17.3029184308142</v>
+        <v>17.30291843081419</v>
       </c>
     </row>
     <row r="23">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.416839568799242</v>
+        <v>-2.843279325065821</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>8.315418820162627</v>
+        <v>7.962030445777689</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.173724558393666</v>
+        <v>-1.987914094749329</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5.089330402464711</v>
+        <v>5.573615096353023</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.2293925185814111</v>
+        <v>-0.08901462742844889</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>10.15237805474369</v>
+        <v>10.20682539455819</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.35452599805796</v>
+        <v>12.83012262055341</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>27.14181243035877</v>
+        <v>27.41526368726744</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16.67744800999441</v>
+        <v>17.21099607549635</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>26.89185640836657</v>
+        <v>26.20600934312984</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>12.28587632427007</v>
+        <v>11.99048540421282</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>25.07161742866693</v>
+        <v>24.88009220715456</v>
       </c>
     </row>
     <row r="25">
@@ -1176,13 +1176,13 @@
         <v>0.3115703670359059</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.6862829962275541</v>
+        <v>0.6862829962275543</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2531836781963475</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7125272995005018</v>
+        <v>0.7125272995005013</v>
       </c>
     </row>
     <row r="26">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1043608703791129</v>
+        <v>-0.1048718503255897</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.293732337385501</v>
+        <v>0.2835189212907583</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.08138157843701524</v>
+        <v>-0.08197202694473726</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1788735585293692</v>
+        <v>0.1892504751631278</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.009273590806223161</v>
+        <v>-0.008017728387416982</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3426040790345338</v>
+        <v>0.3681850590297119</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.6341570178896492</v>
+        <v>0.650195831751277</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.322737350489577</v>
+        <v>1.357131981765817</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.846472300299654</v>
+        <v>0.8425133920401896</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.418254800276358</v>
+        <v>1.357325641916577</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5869648059097339</v>
+        <v>0.5576283732395451</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.145261246137311</v>
+        <v>1.17259306109755</v>
       </c>
     </row>
     <row r="28">
@@ -1252,13 +1252,13 @@
         <v>0.03206626537509139</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>10.14342789741267</v>
+        <v>10.14342789741268</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>-0.5853797982539544</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6.173337074504892</v>
+        <v>6.173337074504897</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>-0.202608747787672</v>
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.214092118232713</v>
+        <v>-3.27426766588506</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>4.522850320210185</v>
+        <v>4.919474949259504</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.981195282931643</v>
+        <v>-4.71456702133718</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.036310939406512</v>
+        <v>1.152845264902808</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.740574123869945</v>
+        <v>-2.719235681689793</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>4.637494309277182</v>
+        <v>4.949024185280559</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.422923803564647</v>
+        <v>3.269141870828654</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>15.31081084980192</v>
+        <v>16.25152905012722</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.524614657231896</v>
+        <v>3.283172218661788</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>11.23516344292375</v>
+        <v>11.56971554092965</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.195830408612805</v>
+        <v>2.395039135136563</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>12.51337784933217</v>
+        <v>12.37059668144496</v>
       </c>
     </row>
     <row r="31">
@@ -1330,13 +1330,13 @@
         <v>0.001430402850968097</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>0.4524751483632061</v>
+        <v>0.4524751483632064</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>-0.0247971259141232</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>0.2615071739807664</v>
+        <v>0.2615071739807667</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>-0.008850103503291551</v>
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1292676135670668</v>
+        <v>-0.1353898218992425</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.190975474018505</v>
+        <v>0.1993533405789354</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1917282020557369</v>
+        <v>-0.1828014979646831</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.03676598147306096</v>
+        <v>0.0490026644534751</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.112183203667269</v>
+        <v>-0.1113150733359368</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1983529259192933</v>
+        <v>0.2048391338245981</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1677561520437642</v>
+        <v>0.1578164691371914</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.7327576713934335</v>
+        <v>0.7557322656457852</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1672901394002272</v>
+        <v>0.1514371368180639</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5129582182123755</v>
+        <v>0.5449204480991643</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1017876428022281</v>
+        <v>0.1089276814055577</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5622566195374918</v>
+        <v>0.5651303276667359</v>
       </c>
     </row>
     <row r="34">
